--- a/biology/Zoologie/Euselasia_euoras/Euselasia_euoras.xlsx
+++ b/biology/Zoologie/Euselasia_euoras/Euselasia_euoras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euselasia euras
 Euselasia euoras est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Euselasia.
@@ -512,13 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euselasia euoras a été décrit par William Chapman Hewitson en 1855 sous le nom d' Eurygona euoras[1].
-Nom vernaculaire
-Il se nomme Purple-washed Euselasia en anglais
-Sous-espèces
-Eusalasia euoras awala présente en Guyane[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia euoras a été décrit par William Chapman Hewitson en 1855 sous le nom d' Eurygona euoras.
 </t>
         </is>
       </c>
@@ -544,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euselasia euoras est de couleur marron foncé suffusé de violet. L'autre face est de couleur gris beige plus ou moins suffusée de jaune d'or, d'orange ou de rouge suivant les sous-espèces avec une ligne jaune orangé ou rouge délimitant une large bande marginale ornée aux postérieures d'une fine bordure orangée ou rouge doublée d'une ligne submarginale de chevrons noirs et d'un gros ocelle noir bordés de blanc surmontés d'une ligne jaune orangé ou rouge.
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Purple-washed Euselasia en anglais
 </t>
         </is>
       </c>
@@ -575,12 +591,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elle est peu connue.
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eusalasia euoras awala présente en Guyane.
 </t>
         </is>
       </c>
@@ -606,16 +628,154 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia euoras est de couleur marron foncé suffusé de violet. L'autre face est de couleur gris beige plus ou moins suffusée de jaune d'or, d'orange ou de rouge suivant les sous-espèces avec une ligne jaune orangé ou rouge délimitant une large bande marginale ornée aux postérieures d'une fine bordure orangée ou rouge doublée d'une ligne submarginale de chevrons noirs et d'un gros ocelle noir bordés de blanc surmontés d'une ligne jaune orangé ou rouge.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euselasia_euoras</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_euoras</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est peu connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euselasia_euoras</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_euoras</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euselasia euoras est présent en Guyane, au Costa Rica, en Équateur, en Colombie, au Brésil et au Pérou[1].
-Biotope
-Il réside dans la forêt tropicale.
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euselasia euoras est présent en Guyane, au Costa Rica, en Équateur, en Colombie, au Brésil et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euselasia_euoras</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_euoras</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la forêt tropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euselasia_euoras</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euselasia_euoras</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
